--- a/data/trans_dic/VUL_ANS-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_ANS-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 3,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 8,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>0,84; 4,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 5,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,32; 15,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>0,38; 3,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,99; 3,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,54; 9,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,94; 3,4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 2,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 3,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>0,73; 4,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,29; 4,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,07; 8,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>1,56; 5,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 3,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 5,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,1</t>
+          <t>1,57; 4,32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,7; 3,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 6,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 2,99</t>
+          <t>0,99; 4,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>2,75; 6,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,5; 7,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>3,0; 7,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>2,13; 4,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,07; 6,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,71</t>
+          <t>2,37; 5,06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>2,93%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,48</t>
+          <t>2,4; 5,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,52</t>
+          <t>0,98; 6,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,53</t>
+          <t>1,04; 3,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,74</t>
+          <t>2,7; 5,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 11,12</t>
+          <t>8,0; 12,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,63</t>
+          <t>2,37; 6,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,3</t>
+          <t>2,88; 4,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,84</t>
+          <t>3,12; 8,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,77</t>
+          <t>2,0; 4,27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,95</t>
+          <t>3,69; 7,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,03</t>
+          <t>4,47; 9,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,96</t>
+          <t>2,24; 6,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,46</t>
+          <t>4,78; 8,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 9,2</t>
+          <t>10,45; 16,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,25</t>
+          <t>4,73; 9,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,02</t>
+          <t>4,8; 7,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,35</t>
+          <t>8,12; 11,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,69</t>
+          <t>4,03; 7,46</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,81</t>
+          <t>1,66; 4,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,97</t>
+          <t>0,5; 3,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,55</t>
+          <t>0,82; 3,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,12; 7,1</t>
+          <t>4,48; 8,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,75</t>
+          <t>1,86; 12,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,99</t>
+          <t>4,22; 8,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,23</t>
+          <t>3,54; 5,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,7</t>
+          <t>2,02; 7,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,15</t>
+          <t>2,77; 5,22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,04</t>
+          <t>2,17; 5,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,19</t>
+          <t>2,29; 8,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,1</t>
+          <t>2,46; 5,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,59</t>
+          <t>7,44; 11,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,91; 12,59</t>
+          <t>9,03; 15,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,28</t>
+          <t>3,11; 7,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,32</t>
+          <t>5,82; 8,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,56; 9,38</t>
+          <t>6,88; 11,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,1</t>
+          <t>3,14; 5,79</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1456,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,3</t>
+          <t>2,58; 3,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,1</t>
+          <t>2,43; 4,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,51; 6,96</t>
+          <t>2,02; 3,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,26; 10,31</t>
+          <t>4,9; 6,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,05; 14,39</t>
+          <t>6,24; 9,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,45; 7,58</t>
+          <t>3,8; 5,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,66</t>
+          <t>3,96; 4,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,15</t>
+          <t>4,9; 7,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,4; 6,59</t>
+          <t>3,08; 4,13</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,69%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2,71%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,25%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>6,48%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>9,13%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>6,22%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>3,87%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>6,46%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>4,28%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 3,02</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 4,29</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1,32; 3,7</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>4,54; 9,02</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>4,78; 12,24</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 8,23</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>2,79; 5,21</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>4,22; 8,06</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>3,35; 5,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>4,31%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>4,9%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>3,3%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>4,78%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>10,61%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>8,22%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>4,56%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>8,37%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>6,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>2,7; 6,39</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>3,39; 7,81</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 5,21</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>3,18; 6,78</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>8,55; 13,49</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>6,66; 10,05</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>3,43; 5,86</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>6,86; 10,19</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>5,0; 7,39</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,69%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>4,36%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,5%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>4,76%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>8,99%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>4,75%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>3,73%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>6,81%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>3,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 3,33</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 5,11</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 3,0</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>4,01; 5,52</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>7,91; 9,91</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>4,26; 5,41</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>3,29; 4,24</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>6,21; 7,43</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 4,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1856,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vulnerabilidad ante la ansiedad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7416</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14080</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2327</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2309</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21496</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6244</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>371; 2173</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1812; 20828</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1438; 8476</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>489; 3126</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6119; 27824</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>643; 5465</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1244; 4130</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10689; 39735</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3194; 11570</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1898</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1730</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>16339</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6704</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2510</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18237</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10361</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>285; 1654</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>166; 8068</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1323; 7569</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>820; 3142</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6510; 27378</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3298; 12554</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1542; 3973</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9206; 28929</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6193; 17037</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1484</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10944</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5631</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16999</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12154</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5859</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27943</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17785</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>660; 2895</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5458; 19745</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2452; 10592</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2692; 6339</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11256; 24023</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7421; 17974</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4115; 8348</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19407; 38787</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11747; 25092</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22799</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5875</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5582</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>41051</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10974</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10650</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>63850</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>16848</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3322; 7325</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6131; 42442</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3075; 10178</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3728; 7992</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>32379; 52004</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6606; 17788</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>7949; 13610</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>32188; 91085</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>11520; 24595</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6985</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>23052</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9371</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9352</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>42486</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>17664</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16337</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>65538</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>27035</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4652; 10028</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15133; 32218</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5247; 15215</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7008; 12465</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>33313; 52377</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12019; 25348</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13113; 20509</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>53342; 78260</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19683; 36423</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3049</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3376</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2961</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7045</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>27809</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>11532</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>10094</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>31185</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>14493</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1787; 5095</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1042; 7325</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1513; 5607</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5159; 9487</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8411; 54633</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>7966; 15840</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>7876; 13254</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>13307; 48763</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>10327; 19430</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3505</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>6462</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>5862</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>12671</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>27783</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>9867</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>16176</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>34245</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>15728</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2084; 5714</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3478; 12196</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3621; 8737</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>9926; 15840</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>21145; 36781</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>6615; 14901</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>13349; 19785</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>26567; 44295</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>11309; 20866</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>21833</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>75947</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>37273</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>42102</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>186547</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>71221</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>63935</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>262494</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>108494</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>17901; 26567</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>51039; 100326</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>29586; 48408</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>37072; 48439</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>139154; 220629</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>59386; 84774</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>57434; 70737</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>212120; 307220</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>93144; 125113</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/VUL_ANS-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_ANS-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad</t>
+          <t>Vulnerabilidad ante la ansiedad (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad</t>
+          <t>Vulnerabilidad ante la ansiedad (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/VUL_ANS-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_ANS-Edad-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,46</t>
+          <t>0,99; 5,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,82</t>
+          <t>0,82; 9,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,0</t>
+          <t>0,7; 3,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 15,09</t>
+          <t>3,25; 14,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,3</t>
+          <t>1,16; 3,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 9,45</t>
+          <t>2,58; 9,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,4</t>
+          <t>0,65; 3,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,52</t>
+          <t>0,07; 4,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,96</t>
+          <t>1,25; 4,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,71</t>
+          <t>2,12; 9,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,32</t>
+          <t>1,73; 5,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,05</t>
+          <t>0,61; 2,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 6,35</t>
+          <t>1,83; 6,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,48</t>
+          <t>2,42; 5,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 7,46</t>
+          <t>3,58; 7,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,33</t>
+          <t>1,86; 3,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,13</t>
+          <t>3,08; 6,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,3</t>
+          <t>2,25; 4,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 6,78</t>
+          <t>1,02; 7,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,79</t>
+          <t>2,29; 4,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,0; 12,85</t>
+          <t>8,01; 12,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,93</t>
+          <t>2,56; 4,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 8,84</t>
+          <t>3,09; 8,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,95</t>
+          <t>3,42; 7,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,47; 9,52</t>
+          <t>4,57; 9,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 8,5</t>
+          <t>4,51; 7,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,45; 16,42</t>
+          <t>10,45; 16,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,51</t>
+          <t>4,39; 6,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,91</t>
+          <t>8,24; 12,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,75</t>
+          <t>1,8; 5,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,53</t>
+          <t>0,59; 3,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,48; 8,25</t>
+          <t>4,97; 9,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 12,07</t>
+          <t>1,37; 11,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,96</t>
+          <t>3,91; 6,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,02; 7,39</t>
+          <t>1,95; 7,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,94</t>
+          <t>1,7; 4,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 8,04</t>
+          <t>2,12; 7,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,44; 11,88</t>
+          <t>7,87; 12,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,03; 15,71</t>
+          <t>9,07; 15,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,82; 8,62</t>
+          <t>5,81; 8,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,88; 11,48</t>
+          <t>6,76; 11,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,58; 3,83</t>
+          <t>2,5; 3,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,78</t>
+          <t>2,34; 4,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,9; 6,4</t>
+          <t>4,71; 6,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,24; 9,89</t>
+          <t>5,7; 9,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,96; 4,87</t>
+          <t>3,78; 4,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,9; 7,09</t>
+          <t>4,85; 7,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>1929</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2309</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>371; 2173</t>
+          <t>757; 3938</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1812; 20828</t>
+          <t>1944; 21397</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>489; 3126</t>
+          <t>461; 2285</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6119; 27824</t>
+          <t>5989; 26985</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1244; 4130</t>
+          <t>1657; 5066</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10689; 39735</t>
+          <t>10833; 40181</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1730</t>
+          <t>1659</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>2761</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>285; 1654</t>
+          <t>487; 2241</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>166; 8068</t>
+          <t>166; 9870</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>820; 3142</t>
+          <t>867; 2992</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6510; 27378</t>
+          <t>6653; 28318</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1542; 3973</t>
+          <t>1681; 4306</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9206; 28929</t>
+          <t>9383; 30225</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1484</t>
+          <t>1418</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4375</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5859</t>
+          <t>5597</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>660; 2895</t>
+          <t>638; 2686</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5458; 19745</t>
+          <t>5686; 20924</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2692; 6339</t>
+          <t>2690; 6238</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11256; 24023</t>
+          <t>11510; 23749</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4115; 8348</t>
+          <t>4008; 7922</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19407; 38787</t>
+          <t>19513; 39569</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5068</t>
+          <t>4940</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5582</t>
+          <t>5142</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10650</t>
+          <t>10082</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3322; 7325</t>
+          <t>3246; 6906</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6131; 42442</t>
+          <t>6403; 44101</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3728; 7992</t>
+          <t>3487; 7368</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32379; 52004</t>
+          <t>32435; 51966</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7949; 13610</t>
+          <t>7609; 12937</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32188; 91085</t>
+          <t>31807; 89188</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6985</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9352</t>
+          <t>9261</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16337</t>
+          <t>15659</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4652; 10028</t>
+          <t>4422; 9185</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>15133; 32218</t>
+          <t>15463; 32912</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7008; 12465</t>
+          <t>6852; 12149</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>33313; 52377</t>
+          <t>33324; 52604</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>13113; 20509</t>
+          <t>12359; 19545</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>53342; 78260</t>
+          <t>54178; 79665</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7045</t>
+          <t>8054</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>10094</t>
+          <t>11344</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1787; 5095</t>
+          <t>1883; 5534</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1042; 7325</t>
+          <t>1218; 7243</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5159; 9487</t>
+          <t>5767; 10855</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8411; 54633</t>
+          <t>6200; 54155</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7876; 13254</t>
+          <t>8616; 14643</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13307; 48763</t>
+          <t>12879; 49586</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3505</t>
+          <t>2595</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>12671</t>
+          <t>12986</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>16176</t>
+          <t>15581</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2084; 5714</t>
+          <t>1511; 4002</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3478; 12196</t>
+          <t>3217; 11896</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>9926; 15840</t>
+          <t>10371; 16399</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>21145; 36781</t>
+          <t>21227; 36731</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>13349; 19785</t>
+          <t>12827; 18973</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>26567; 44295</t>
+          <t>26068; 43867</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>21833</t>
+          <t>21672</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>42102</t>
+          <t>42406</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>63935</t>
+          <t>64079</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>17901; 26567</t>
+          <t>18090; 25986</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>51039; 100326</t>
+          <t>49081; 96724</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>37072; 48439</t>
+          <t>37628; 48571</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>139154; 220629</t>
+          <t>127085; 217068</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>57434; 70737</t>
+          <t>57488; 71215</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>212120; 307220</t>
+          <t>210217; 303414</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/VUL_ANS-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_ANS-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2,51%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,14%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,3%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>1,7%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,64%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,37%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>2,14%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5,11%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,71; 8,56</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 4,98</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,99; 5,13</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 9,06</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 4,98</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>2,73; 12,53</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 3,21</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,7; 3,45</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>3,25; 14,64</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 3,21</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>2,44; 8,72</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 3,4</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>1,16; 3,54</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 9,55</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 3,4</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,48%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,83%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,01%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>2,4%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,2%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>1,92%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,35%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,62; 5,19</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 4,15</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,65; 3,01</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 4,3</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 4,15</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>3,49; 9,9</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 5,92</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>1,25; 4,33</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 9,01</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 5,92</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>2,49; 6,43</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 4,32</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>1,17; 3,0</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 5,56</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 4,32</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,36%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,52%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,26%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4,92%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>3,76%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,28%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,92%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>4,33%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>2,6%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,81; 6,38</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 4,26</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,61; 2,58</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 6,73</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 4,26</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>3,56; 7,39</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 7,27</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>2,42; 5,62</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 7,38</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3,0; 7,27</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>3,06; 5,95</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 5,06</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>1,86; 3,68</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3,08; 6,25</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 5,06</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,98%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>3,42%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,64%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>10,28%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3,93%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>3,37%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>10,14%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,93%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>3,4%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,19%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>2,93%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,86; 8,77</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 3,43</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>2,25; 4,78</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 7,04</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 3,43</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>8,22; 12,88</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 6,38</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>2,29; 4,83</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>8,01; 12,84</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 6,38</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>6,62; 9,99</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 4,27</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>2,56; 4,36</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>3,09; 8,65</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 4,27</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6,3%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>4,95%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,81%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,0%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>13,37%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>6,09%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>13,32%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>6,95%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,54%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>5,57%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>9,97%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>4,14; 9,04</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,24; 6,5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>3,42; 7,11</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4,57; 9,73</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,24; 6,5</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>10,5; 16,38</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 9,98</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>4,51; 7,99</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>10,45; 16,5</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>4,73; 9,98</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>8,15; 11,85</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 7,46</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>4,39; 6,95</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>8,24; 12,12</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>4,03; 7,46</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,54%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>3,15%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>11,45%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>6,95%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,14%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>6,1%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>5,15%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>4,72%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,56; 3,33</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 3,06</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1,8; 5,3</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 3,49</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 3,06</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>8,78; 14,41</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 8,38</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>4,97; 9,36</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,37; 11,96</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>4,22; 8,38</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>5,31; 8,9</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 5,22</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>3,91; 6,65</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,95; 7,51</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>2,77; 5,22</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>2,91%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,26%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,98%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>12,44%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4,64%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>9,85%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>11,87%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>4,64%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4,37%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>7,05%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>8,87%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,29; 8,14</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 5,93</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1,7; 4,49</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 7,84</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 5,93</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>9,6; 16,62</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3,11; 7,0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>7,87; 12,44</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>9,07; 15,69</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>3,11; 7,0</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>7,08; 11,87</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 5,79</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>5,81; 8,59</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>6,76; 11,37</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>3,14; 5,79</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>3,0%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>3,62%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,55%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>9,46%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>5,31%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>8,36%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>4,55%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>4,21%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>3,13; 5,11</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2,02; 3,31</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>2,5; 3,6</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2,34; 4,61</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>2,02; 3,31</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>8,37; 10,58</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3,8; 5,42</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>4,71; 6,08</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>5,7; 9,73</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>3,8; 5,42</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>6,13; 7,63</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 4,13</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>3,78; 4,68</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 7,01</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>3,08; 4,13</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1660,19 +1660,19 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
           <t>7</t>
@@ -1680,27 +1680,27 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>14</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
         </is>
       </c>
     </row>
@@ -1713,47 +1713,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>7347</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1929</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7416</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3917</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>14541</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2327</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>1125</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>14080</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2327</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>21888</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6244</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>3054</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>21496</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>6244</t>
         </is>
       </c>
     </row>
@@ -1766,47 +1766,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1709; 20659</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1438; 8476</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>757; 3938</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1944; 21397</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1438; 8476</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>6006; 27517</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>643; 5465</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>461; 2285</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5989; 26985</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>643; 5465</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>11233; 40202</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3194; 11570</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>1657; 5066</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>10833; 40181</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3194; 11570</t>
         </is>
       </c>
     </row>
@@ -1823,34 +1823,34 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
           <t>18</t>
@@ -1858,12 +1858,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
     </row>
@@ -1876,47 +1876,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1101</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1898</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3656</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>17720</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6704</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1659</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>16339</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6704</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>22788</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10361</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>2761</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>18237</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>10361</t>
         </is>
       </c>
     </row>
@@ -1929,47 +1929,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1617; 13591</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1323; 7569</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>487; 2241</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>166; 9870</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1323; 7569</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>9901; 28063</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3298; 12554</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>867; 2992</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>6653; 28318</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3298; 12554</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>13567; 35047</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6193; 17037</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>1681; 4306</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>9383; 30225</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>6193; 17037</t>
         </is>
       </c>
     </row>
@@ -1986,47 +1986,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>33</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
         </is>
       </c>
     </row>
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>12209</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5631</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1418</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>10944</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>5631</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>19838</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12154</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4179</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>16999</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>12154</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>32047</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17785</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>5597</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>27943</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>17785</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6679; 23516</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2452; 10592</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>638; 2686</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5686; 20924</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2452; 10592</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>13259; 27555</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7421; 17974</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>2690; 6238</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>11510; 23749</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7421; 17974</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>22707; 44063</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11747; 25092</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>4008; 7922</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>19513; 39569</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>11747; 25092</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>58</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>25031</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5875</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>4940</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>22799</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5875</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>45379</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10974</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>5142</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>41051</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>10974</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>70410</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16848</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>10082</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>63850</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>16848</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>16325; 37090</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3075; 10178</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>3246; 6906</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6403; 44101</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3075; 10178</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>36270; 56826</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6606; 17788</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>3487; 7368</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>32435; 51966</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>6606; 17788</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>57170; 86321</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>11520; 24595</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>7609; 12937</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>31807; 89188</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>11520; 24595</t>
         </is>
       </c>
     </row>
@@ -2312,47 +2312,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>87</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>46</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>23116</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9371</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>6398</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>23052</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>9371</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>48180</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17664</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>9261</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>42486</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>17664</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>71296</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>27035</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>15659</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>65538</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>27035</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>15197; 33172</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5247; 15215</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>4422; 9185</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>15463; 32912</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>5247; 15215</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>37827; 59041</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12019; 25348</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>6852; 12149</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>33324; 52604</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>12019; 25348</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>59285; 86230</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>19683; 36423</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>12359; 19545</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>54178; 79665</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>19683; 36423</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>64</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>3552</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2961</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>3290</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>3376</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2961</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>30919</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>11532</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>8054</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>27809</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>11532</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>34471</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>14493</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>11344</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>31185</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>14493</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>1297; 7676</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1513; 5607</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>1883; 5534</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>1218; 7243</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1513; 5607</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>23716; 38918</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>7966; 15840</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>5767; 10855</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>6200; 54155</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>7966; 15840</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>26586; 44534</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10327; 19430</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>8616; 14643</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>12879; 49586</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>10327; 19430</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>78</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>96</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>47</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>7336</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>5862</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>2595</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>6462</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>5862</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>31988</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>9867</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>12986</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>27783</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>9867</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>39325</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>15728</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>15581</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>34245</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>15728</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>3786; 13475</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3621; 8737</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>1511; 4002</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3217; 11896</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3621; 8737</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>24681; 42724</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6615; 14901</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>10371; 16399</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>21227; 36731</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>6615; 14901</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>29945; 50181</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>11309; 20866</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>12827; 18973</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>26068; 43867</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>11309; 20866</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>120</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>290</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>370</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>369</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>223</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>83660</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>37273</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>21672</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>75947</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>37273</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>208565</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>71221</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>42406</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>186547</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>71221</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>292225</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>108494</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>64079</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>262494</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>108494</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>64475; 105053</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>29586; 48408</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>18090; 25986</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>49081; 96724</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>29586; 48408</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>184529; 233295</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>59386; 84774</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>37628; 48571</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>127085; 217068</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>59386; 84774</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>261187; 325038</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>93144; 125113</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>57488; 71215</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>210217; 303414</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>93144; 125113</t>
         </is>
       </c>
     </row>
